--- a/Data/GEF Sampling/Sampling June 2018/GEF_MV_Woody spp_2018.07.06.Mdoda.xlsx
+++ b/Data/GEF Sampling/Sampling June 2018/GEF_MV_Woody spp_2018.07.06.Mdoda.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7152"/>
   </bookViews>
   <sheets>
-    <sheet name="20 x 20m" sheetId="1" r:id="rId1"/>
+    <sheet name="10 x 10m" sheetId="1" r:id="rId1"/>
     <sheet name="5x5m" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="83">
   <si>
     <t>Plot number</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Euphorbia red spines</t>
-  </si>
-  <si>
-    <t>C.haematorcapa</t>
   </si>
   <si>
     <t>Bracken fern?</t>
@@ -624,9 +621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F359"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A304" sqref="A304"/>
+      <selection pane="bottomLeft" activeCell="C304" sqref="C304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +658,7 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -681,7 +678,7 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -701,7 +698,7 @@
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -721,7 +718,7 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -741,7 +738,7 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -761,7 +758,7 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -781,7 +778,7 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -801,7 +798,7 @@
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -821,7 +818,7 @@
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -841,7 +838,7 @@
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -861,7 +858,7 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -881,7 +878,7 @@
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -901,7 +898,7 @@
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
@@ -921,7 +918,7 @@
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
@@ -941,7 +938,7 @@
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -961,7 +958,7 @@
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
@@ -981,7 +978,7 @@
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -1001,7 +998,7 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -1021,7 +1018,7 @@
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -1041,7 +1038,7 @@
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
@@ -1061,7 +1058,7 @@
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
@@ -1081,7 +1078,7 @@
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
@@ -1101,7 +1098,7 @@
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
@@ -1121,7 +1118,7 @@
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
@@ -1141,7 +1138,7 @@
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -1201,7 +1198,7 @@
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
@@ -1221,7 +1218,7 @@
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
@@ -1241,7 +1238,7 @@
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
@@ -1261,7 +1258,7 @@
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
@@ -1281,7 +1278,7 @@
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
@@ -1301,7 +1298,7 @@
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
@@ -1341,7 +1338,7 @@
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>6</v>
@@ -1361,7 +1358,7 @@
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>6</v>
@@ -1381,7 +1378,7 @@
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -1401,7 +1398,7 @@
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
@@ -1415,7 +1412,7 @@
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>6</v>
@@ -1435,7 +1432,7 @@
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>6</v>
@@ -1455,7 +1452,7 @@
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
@@ -1475,7 +1472,7 @@
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
@@ -1495,7 +1492,7 @@
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>6</v>
@@ -1515,7 +1512,7 @@
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>6</v>
@@ -1535,7 +1532,7 @@
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>6</v>
@@ -1555,7 +1552,7 @@
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>6</v>
@@ -1575,7 +1572,7 @@
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
@@ -1595,7 +1592,7 @@
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>6</v>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>6</v>
@@ -1635,7 +1632,7 @@
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>6</v>
@@ -1655,7 +1652,7 @@
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>6</v>
@@ -1675,7 +1672,7 @@
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>6</v>
@@ -1695,7 +1692,7 @@
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>6</v>
@@ -1715,7 +1712,7 @@
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>6</v>
@@ -1735,7 +1732,7 @@
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>6</v>
@@ -1755,7 +1752,7 @@
     </row>
     <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>6</v>
@@ -1775,7 +1772,7 @@
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>6</v>
@@ -1795,7 +1792,7 @@
     </row>
     <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>6</v>
@@ -1815,7 +1812,7 @@
     </row>
     <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
@@ -1835,7 +1832,7 @@
     </row>
     <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>6</v>
@@ -1855,7 +1852,7 @@
     </row>
     <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>6</v>
@@ -1875,7 +1872,7 @@
     </row>
     <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>6</v>
@@ -1895,7 +1892,7 @@
     </row>
     <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
@@ -1915,7 +1912,7 @@
     </row>
     <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>6</v>
@@ -1935,7 +1932,7 @@
     </row>
     <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>6</v>
@@ -1955,7 +1952,7 @@
     </row>
     <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>6</v>
@@ -1975,7 +1972,7 @@
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>6</v>
@@ -1995,7 +1992,7 @@
     </row>
     <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>6</v>
@@ -2015,7 +2012,7 @@
     </row>
     <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>6</v>
@@ -2035,7 +2032,7 @@
     </row>
     <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>6</v>
@@ -2055,7 +2052,7 @@
     </row>
     <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>6</v>
@@ -2075,7 +2072,7 @@
     </row>
     <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>6</v>
@@ -2095,7 +2092,7 @@
     </row>
     <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>6</v>
@@ -2115,7 +2112,7 @@
     </row>
     <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>6</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>6</v>
@@ -2155,7 +2152,7 @@
     </row>
     <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>6</v>
@@ -2175,7 +2172,7 @@
     </row>
     <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>6</v>
@@ -2195,7 +2192,7 @@
     </row>
     <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>6</v>
@@ -2215,13 +2212,13 @@
     </row>
     <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D80" s="2">
         <v>117</v>
@@ -2235,13 +2232,13 @@
     </row>
     <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D81" s="2">
         <v>82</v>
@@ -2255,7 +2252,7 @@
     </row>
     <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>6</v>
@@ -2275,7 +2272,7 @@
     </row>
     <row r="83" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>6</v>
@@ -2295,13 +2292,13 @@
     </row>
     <row r="84" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D84" s="2">
         <v>63</v>
@@ -2315,13 +2312,13 @@
     </row>
     <row r="85" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D85" s="2">
         <v>69</v>
@@ -2335,7 +2332,7 @@
     </row>
     <row r="86" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>6</v>
@@ -2355,7 +2352,7 @@
     </row>
     <row r="87" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>6</v>
@@ -2375,13 +2372,13 @@
     </row>
     <row r="88" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D88" s="2">
         <v>54</v>
@@ -2395,13 +2392,13 @@
     </row>
     <row r="89" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D89" s="2">
         <v>114</v>
@@ -2415,7 +2412,7 @@
     </row>
     <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>6</v>
@@ -2435,13 +2432,13 @@
     </row>
     <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D91" s="2">
         <v>61</v>
@@ -2455,13 +2452,13 @@
     </row>
     <row r="92" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D92" s="2">
         <v>26</v>
@@ -2475,7 +2472,7 @@
     </row>
     <row r="93" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>6</v>
@@ -2495,13 +2492,13 @@
     </row>
     <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D94" s="2">
         <v>54</v>
@@ -2515,7 +2512,7 @@
     </row>
     <row r="95" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>6</v>
@@ -2535,7 +2532,7 @@
     </row>
     <row r="96" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>6</v>
@@ -2555,13 +2552,13 @@
     </row>
     <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D97" s="2">
         <v>48</v>
@@ -2575,13 +2572,13 @@
     </row>
     <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D98" s="2">
         <v>65</v>
@@ -2595,7 +2592,7 @@
     </row>
     <row r="99" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>6</v>
@@ -2615,13 +2612,13 @@
     </row>
     <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D100" s="2">
         <v>73</v>
@@ -2635,13 +2632,13 @@
     </row>
     <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D101" s="2">
         <v>42</v>
@@ -2655,7 +2652,7 @@
     </row>
     <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>6</v>
@@ -2675,13 +2672,13 @@
     </row>
     <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D103" s="2">
         <v>21</v>
@@ -2695,13 +2692,13 @@
     </row>
     <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D104" s="2">
         <v>78</v>
@@ -2715,7 +2712,7 @@
     </row>
     <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>6</v>
@@ -2735,7 +2732,7 @@
     </row>
     <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>6</v>
@@ -2755,7 +2752,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>6</v>
@@ -2775,7 +2772,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>6</v>
@@ -2795,13 +2792,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D109" s="2">
         <v>67</v>
@@ -2815,7 +2812,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>6</v>
@@ -2835,13 +2832,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D111" s="5">
         <v>109</v>
@@ -2855,7 +2852,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>6</v>
@@ -2875,7 +2872,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>6</v>
@@ -2895,13 +2892,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D114" s="5">
         <v>109</v>
@@ -2915,7 +2912,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>6</v>
@@ -2935,7 +2932,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>6</v>
@@ -2955,7 +2952,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>6</v>
@@ -2975,13 +2972,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D118" s="5">
         <v>22</v>
@@ -2995,13 +2992,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D119" s="5">
         <v>79</v>
@@ -3015,13 +3012,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D120" s="5">
         <v>81</v>
@@ -3035,7 +3032,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>6</v>
@@ -3055,7 +3052,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>6</v>
@@ -3075,13 +3072,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D123" s="5">
         <v>152</v>
@@ -3095,13 +3092,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D124" s="5">
         <v>48</v>
@@ -3115,13 +3112,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D125" s="5">
         <v>62</v>
@@ -3135,13 +3132,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D126" s="5">
         <v>52</v>
@@ -3155,13 +3152,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D127" s="5">
         <v>38</v>
@@ -3175,13 +3172,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D128" s="5">
         <v>103</v>
@@ -3195,13 +3192,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D129" s="5">
         <v>87</v>
@@ -3215,13 +3212,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D130" s="5">
         <v>60</v>
@@ -3235,7 +3232,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>6</v>
@@ -3255,7 +3252,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>6</v>
@@ -3275,13 +3272,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D133" s="5">
         <v>12</v>
@@ -3295,7 +3292,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>6</v>
@@ -3315,7 +3312,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>6</v>
@@ -3335,7 +3332,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>6</v>
@@ -3355,13 +3352,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D137" s="5">
         <v>24</v>
@@ -3375,13 +3372,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D138" s="5">
         <v>21</v>
@@ -3395,13 +3392,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D139" s="5">
         <v>68</v>
@@ -3415,13 +3412,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D140" s="5">
         <v>136</v>
@@ -3435,7 +3432,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>6</v>
@@ -3455,7 +3452,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>6</v>
@@ -3475,7 +3472,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>6</v>
@@ -3495,13 +3492,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D144" s="5">
         <v>51</v>
@@ -3515,7 +3512,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>6</v>
@@ -3535,7 +3532,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>6</v>
@@ -3555,13 +3552,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D147" s="5">
         <v>29</v>
@@ -3575,13 +3572,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D148" s="5">
         <v>87</v>
@@ -3595,7 +3592,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>6</v>
@@ -3615,7 +3612,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>6</v>
@@ -3635,7 +3632,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>6</v>
@@ -3655,7 +3652,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>6</v>
@@ -3675,7 +3672,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>6</v>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>6</v>
@@ -3715,13 +3712,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D155" s="5">
         <v>144</v>
@@ -3735,7 +3732,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>6</v>
@@ -3755,7 +3752,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>6</v>
@@ -3775,7 +3772,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>6</v>
@@ -3795,7 +3792,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>6</v>
@@ -3815,7 +3812,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>6</v>
@@ -3835,7 +3832,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>6</v>
@@ -3855,7 +3852,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>6</v>
@@ -3875,7 +3872,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>6</v>
@@ -3895,7 +3892,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -3915,13 +3912,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D165" s="5">
         <v>98</v>
@@ -3935,7 +3932,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -3955,13 +3952,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D167" s="5">
         <v>46</v>
@@ -3975,13 +3972,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D168" s="5">
         <v>88</v>
@@ -3995,7 +3992,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -4015,7 +4012,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -4035,13 +4032,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D171" s="5">
         <v>77</v>
@@ -4055,7 +4052,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -4075,7 +4072,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -4095,13 +4092,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D174" s="5">
         <v>64</v>
@@ -4115,7 +4112,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -4135,13 +4132,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D176" s="5">
         <v>142</v>
@@ -4155,13 +4152,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D177" s="5">
         <v>17</v>
@@ -4175,13 +4172,13 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D178" s="5">
         <v>57</v>
@@ -4195,13 +4192,13 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D179" s="5">
         <v>79</v>
@@ -4215,13 +4212,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D180" s="5">
         <v>155</v>
@@ -4235,7 +4232,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -4255,7 +4252,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4275,13 +4272,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D183" s="5">
         <v>122</v>
@@ -4295,13 +4292,13 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D184" s="5">
         <v>128</v>
@@ -4315,13 +4312,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D185" s="5">
         <v>94</v>
@@ -4335,13 +4332,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D186" s="5">
         <v>62</v>
@@ -4355,13 +4352,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D187" s="5">
         <v>49</v>
@@ -4375,7 +4372,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4395,7 +4392,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4415,13 +4412,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D190" s="5">
         <v>103</v>
@@ -4435,7 +4432,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4455,7 +4452,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4475,7 +4472,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4495,7 +4492,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4515,7 +4512,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4535,7 +4532,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4555,7 +4552,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
@@ -4575,7 +4572,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -4595,7 +4592,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
@@ -4615,7 +4612,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -4635,13 +4632,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D201" s="5">
         <v>53</v>
@@ -4655,7 +4652,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -4675,7 +4672,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -4695,7 +4692,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
@@ -4715,7 +4712,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -4735,7 +4732,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -4755,7 +4752,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -4775,7 +4772,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -4795,7 +4792,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -4815,7 +4812,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -4835,7 +4832,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -4855,7 +4852,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4875,7 +4872,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4895,7 +4892,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -4915,7 +4912,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -4935,7 +4932,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -4955,7 +4952,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -4975,7 +4972,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -4995,13 +4992,13 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D219" s="5">
         <v>98</v>
@@ -5015,7 +5012,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5035,7 +5032,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5055,7 +5052,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5075,7 +5072,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5095,7 +5092,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5115,7 +5112,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5135,13 +5132,13 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D226">
         <v>126</v>
@@ -5155,13 +5152,13 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D227">
         <v>22</v>
@@ -5175,13 +5172,13 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D228">
         <v>71</v>
@@ -5195,7 +5192,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
@@ -5215,7 +5212,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
@@ -5235,7 +5232,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
@@ -5255,7 +5252,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
@@ -5275,7 +5272,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
@@ -5295,7 +5292,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
@@ -5315,7 +5312,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
@@ -5335,7 +5332,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
@@ -5355,7 +5352,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="238" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
@@ -5395,7 +5392,7 @@
     </row>
     <row r="239" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
@@ -5415,7 +5412,7 @@
     </row>
     <row r="240" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
@@ -5435,7 +5432,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
@@ -5455,13 +5452,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D242">
         <v>31</v>
@@ -5475,7 +5472,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5495,7 +5492,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5515,7 +5512,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5535,7 +5532,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5552,7 +5549,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5572,7 +5569,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5592,7 +5589,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5612,7 +5609,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5632,7 +5629,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5652,7 +5649,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5672,7 +5669,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5692,7 +5689,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5712,7 +5709,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5732,7 +5729,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -5752,7 +5749,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -5772,7 +5769,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -5792,7 +5789,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -5812,7 +5809,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -5832,7 +5829,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -5852,7 +5849,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -5872,7 +5869,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -5892,7 +5889,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -5912,7 +5909,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
@@ -5932,7 +5929,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
@@ -5952,7 +5949,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
@@ -5966,7 +5963,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
@@ -5986,7 +5983,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
@@ -6006,7 +6003,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -6026,7 +6023,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
@@ -6046,7 +6043,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6066,7 +6063,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6086,7 +6083,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6106,13 +6103,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D275">
         <v>129</v>
@@ -6126,7 +6123,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6146,7 +6143,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6166,7 +6163,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6186,7 +6183,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6206,7 +6203,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6226,7 +6223,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6246,7 +6243,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6266,7 +6263,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6286,7 +6283,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6306,7 +6303,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6326,7 +6323,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6346,7 +6343,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
@@ -6366,7 +6363,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
@@ -6386,7 +6383,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
@@ -6406,7 +6403,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
@@ -6426,7 +6423,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B291" t="s">
         <v>6</v>
@@ -6446,13 +6443,13 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D292">
         <v>32</v>
@@ -6466,7 +6463,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
@@ -6486,7 +6483,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B294" t="s">
         <v>6</v>
@@ -6506,7 +6503,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
@@ -6526,7 +6523,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
@@ -6546,7 +6543,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
@@ -6566,7 +6563,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B298" t="s">
         <v>6</v>
@@ -6586,7 +6583,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B299" t="s">
         <v>6</v>
@@ -6606,7 +6603,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
@@ -6626,13 +6623,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B301" t="s">
         <v>6</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D301">
         <v>75</v>
@@ -6646,7 +6643,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6666,13 +6663,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D303">
         <v>85</v>
@@ -6686,7 +6683,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6706,7 +6703,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6726,7 +6723,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -6746,13 +6743,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D307">
         <v>67</v>
@@ -6766,7 +6763,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -6786,7 +6783,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -6806,7 +6803,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -6826,7 +6823,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -6846,7 +6843,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -6866,7 +6863,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -6886,13 +6883,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D314">
         <v>276</v>
@@ -6906,13 +6903,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D315">
         <v>26</v>
@@ -6926,13 +6923,13 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D316">
         <v>25</v>
@@ -6946,13 +6943,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B317" t="s">
         <v>6</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D317">
         <v>54</v>
@@ -6966,13 +6963,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B318" t="s">
         <v>6</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D318">
         <v>137</v>
@@ -6986,7 +6983,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B319" t="s">
         <v>6</v>
@@ -7006,7 +7003,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B320" t="s">
         <v>6</v>
@@ -7026,7 +7023,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B321" t="s">
         <v>6</v>
@@ -7046,13 +7043,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B322" t="s">
         <v>6</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D322">
         <v>52</v>
@@ -7066,13 +7063,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B323" t="s">
         <v>6</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D323">
         <v>192</v>
@@ -7086,7 +7083,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B324" t="s">
         <v>6</v>
@@ -7106,7 +7103,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B325" t="s">
         <v>6</v>
@@ -7126,7 +7123,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B326" t="s">
         <v>6</v>
@@ -7146,7 +7143,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B327" t="s">
         <v>6</v>
@@ -7166,7 +7163,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B328" t="s">
         <v>6</v>
@@ -7186,7 +7183,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B329" t="s">
         <v>6</v>
@@ -7206,7 +7203,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
@@ -7226,7 +7223,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
@@ -7246,7 +7243,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7266,7 +7263,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7286,7 +7283,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7306,7 +7303,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7326,7 +7323,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
@@ -7346,7 +7343,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
@@ -7366,7 +7363,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7386,7 +7383,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -7406,7 +7403,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
@@ -7426,7 +7423,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7446,13 +7443,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D342">
         <v>24</v>
@@ -7466,7 +7463,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -7486,7 +7483,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7506,13 +7503,13 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D345">
         <v>49</v>
@@ -7526,7 +7523,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -7546,7 +7543,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B347" t="s">
         <v>6</v>
@@ -7566,7 +7563,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B348" t="s">
         <v>6</v>
@@ -7586,7 +7583,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B349" t="s">
         <v>6</v>
@@ -7606,7 +7603,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B350" t="s">
         <v>6</v>
@@ -7626,7 +7623,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B351" t="s">
         <v>6</v>
@@ -7646,7 +7643,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B352" t="s">
         <v>6</v>
@@ -7666,7 +7663,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B353" t="s">
         <v>6</v>
@@ -7686,7 +7683,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B354" t="s">
         <v>6</v>
@@ -7706,7 +7703,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B355" t="s">
         <v>6</v>
@@ -7726,7 +7723,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B356" t="s">
         <v>6</v>
@@ -7746,7 +7743,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B357" t="s">
         <v>6</v>
@@ -7766,7 +7763,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B358" t="s">
         <v>6</v>
@@ -7786,13 +7783,13 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B359" t="s">
         <v>6</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D359">
         <v>72</v>
@@ -7814,8 +7811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A283" sqref="A283"/>
+    <sheetView topLeftCell="A159" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7850,7 +7847,7 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -7870,7 +7867,7 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -7890,7 +7887,7 @@
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -7910,7 +7907,7 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -7930,7 +7927,7 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -7950,7 +7947,7 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -7970,7 +7967,7 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -7990,7 +7987,7 @@
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -8010,7 +8007,7 @@
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -8030,7 +8027,7 @@
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -8050,7 +8047,7 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -8070,7 +8067,7 @@
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -8090,7 +8087,7 @@
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
@@ -8110,7 +8107,7 @@
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
@@ -8130,7 +8127,7 @@
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -8150,7 +8147,7 @@
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
@@ -8170,7 +8167,7 @@
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -8190,7 +8187,7 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -8210,7 +8207,7 @@
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -8230,7 +8227,7 @@
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
@@ -8250,7 +8247,7 @@
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
@@ -8270,7 +8267,7 @@
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
@@ -8290,7 +8287,7 @@
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
@@ -8310,7 +8307,7 @@
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
@@ -8330,7 +8327,7 @@
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
@@ -8350,7 +8347,7 @@
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
@@ -8370,7 +8367,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -8390,7 +8387,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
@@ -8410,7 +8407,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -8430,7 +8427,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -8450,7 +8447,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -8470,7 +8467,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -8490,7 +8487,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -8510,7 +8507,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -8530,7 +8527,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -8550,7 +8547,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -8570,7 +8567,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -8590,7 +8587,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -8610,7 +8607,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -8630,7 +8627,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -8650,7 +8647,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -8670,7 +8667,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -8690,7 +8687,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -8710,7 +8707,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -8730,7 +8727,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -8750,7 +8747,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -8770,7 +8767,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -8790,7 +8787,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -8810,7 +8807,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -8830,7 +8827,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -8850,7 +8847,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -8870,7 +8867,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -8890,7 +8887,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -8910,7 +8907,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -8930,7 +8927,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -8950,7 +8947,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -8970,7 +8967,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -8990,7 +8987,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -9010,7 +9007,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -9030,7 +9027,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -9050,7 +9047,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -9070,7 +9067,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -9090,7 +9087,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -9110,7 +9107,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -9130,7 +9127,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -9150,7 +9147,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -9170,7 +9167,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -9190,7 +9187,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -9210,7 +9207,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -9230,7 +9227,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -9250,7 +9247,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -9270,7 +9267,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -9290,7 +9287,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -9310,7 +9307,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -9330,7 +9327,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -9350,7 +9347,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -9370,7 +9367,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -9390,7 +9387,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -9410,7 +9407,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -9430,7 +9427,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -9450,7 +9447,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -9470,7 +9467,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -9490,13 +9487,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D84">
         <v>99</v>
@@ -9510,7 +9507,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -9530,7 +9527,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -9550,7 +9547,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -9570,7 +9567,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -9590,7 +9587,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -9610,7 +9607,7 @@
     </row>
     <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -9630,7 +9627,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -9650,7 +9647,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -9670,7 +9667,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -9690,7 +9687,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -9710,7 +9707,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -9730,7 +9727,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -9750,13 +9747,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D97">
         <v>41</v>
@@ -9770,13 +9767,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D98">
         <v>23</v>
@@ -9790,7 +9787,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -9810,13 +9807,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D100">
         <v>24</v>
@@ -9830,7 +9827,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -9850,7 +9847,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -9870,7 +9867,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -9890,7 +9887,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -9910,13 +9907,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D105">
         <v>7</v>
@@ -9930,13 +9927,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D106">
         <v>6</v>
@@ -9950,7 +9947,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -9970,7 +9967,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -9990,7 +9987,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -10010,7 +10007,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -10030,7 +10027,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -10050,7 +10047,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -10070,7 +10067,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -10090,7 +10087,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -10110,7 +10107,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -10130,13 +10127,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D116">
         <v>39</v>
@@ -10150,13 +10147,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D117">
         <v>26</v>
@@ -10170,13 +10167,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D118">
         <v>43</v>
@@ -10190,7 +10187,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -10210,13 +10207,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D120">
         <v>31</v>
@@ -10230,13 +10227,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D121">
         <v>29</v>
@@ -10250,13 +10247,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D122">
         <v>210</v>
@@ -10270,7 +10267,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -10290,7 +10287,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -10310,13 +10307,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D125">
         <v>13</v>
@@ -10330,13 +10327,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D126">
         <v>23</v>
@@ -10350,13 +10347,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -10370,13 +10367,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D128">
         <v>25</v>
@@ -10390,7 +10387,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -10410,13 +10407,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D130">
         <v>213</v>
@@ -10430,13 +10427,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D131">
         <v>340</v>
@@ -10450,7 +10447,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -10470,7 +10467,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -10490,7 +10487,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -10510,13 +10507,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D135">
         <v>53</v>
@@ -10530,13 +10527,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D136">
         <v>28</v>
@@ -10550,7 +10547,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
@@ -10570,7 +10567,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -10590,7 +10587,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -10610,7 +10607,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -10630,7 +10627,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -10650,7 +10647,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -10670,7 +10667,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -10690,7 +10687,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -10710,7 +10707,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -10730,7 +10727,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -10750,7 +10747,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -10770,7 +10767,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -10790,7 +10787,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -10810,7 +10807,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -10830,7 +10827,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -10850,7 +10847,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -10870,7 +10867,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -10890,7 +10887,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -10910,7 +10907,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -10930,7 +10927,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -10950,7 +10947,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -10970,7 +10967,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -10990,7 +10987,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -11010,7 +11007,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -11030,7 +11027,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -11050,7 +11047,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -11070,7 +11067,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -11090,7 +11087,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -11110,7 +11107,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -11130,7 +11127,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -11150,7 +11147,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -11170,7 +11167,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -11190,7 +11187,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -11210,7 +11207,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -11230,7 +11227,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -11250,7 +11247,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -11270,7 +11267,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -11290,7 +11287,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -11310,7 +11307,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -11330,7 +11327,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -11350,13 +11347,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D177">
         <v>24</v>
@@ -11370,7 +11367,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -11390,7 +11387,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -11410,7 +11407,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -11430,7 +11427,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -11450,7 +11447,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -11470,7 +11467,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -11490,7 +11487,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -11510,7 +11507,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -11530,7 +11527,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -11550,13 +11547,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D187">
         <v>41</v>
@@ -11570,7 +11567,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -11590,13 +11587,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D189">
         <v>45</v>
@@ -11610,7 +11607,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -11630,7 +11627,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -11650,7 +11647,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -11670,7 +11667,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -11690,7 +11687,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -11710,7 +11707,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -11730,7 +11727,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -11750,13 +11747,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
       </c>
       <c r="C197" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D197">
         <v>21</v>
@@ -11770,7 +11767,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -11790,7 +11787,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
@@ -11810,7 +11807,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -11830,7 +11827,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -11850,7 +11847,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -11870,7 +11867,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -11890,13 +11887,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
       </c>
       <c r="C204" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D204">
         <v>3</v>
@@ -11910,13 +11907,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D205">
         <v>8</v>
@@ -11930,13 +11927,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
       </c>
       <c r="C206" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D206">
         <v>36</v>
@@ -11950,7 +11947,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -11970,7 +11967,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -11990,7 +11987,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -12010,7 +12007,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -12030,7 +12027,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -12050,7 +12047,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -12070,7 +12067,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -12090,7 +12087,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -12110,7 +12107,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -12130,13 +12127,13 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D216">
         <v>52</v>
@@ -12150,7 +12147,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -12170,7 +12167,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -12190,7 +12187,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -12210,7 +12207,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -12230,7 +12227,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -12250,7 +12247,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -12270,13 +12267,13 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D223">
         <v>13</v>
@@ -12290,7 +12287,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -12310,7 +12307,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -12330,13 +12327,13 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D226">
         <v>29</v>
@@ -12350,13 +12347,13 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D227">
         <v>20</v>
@@ -12370,13 +12367,13 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D228">
         <v>69</v>
@@ -12390,13 +12387,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D229">
         <v>44</v>
@@ -12410,7 +12407,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
@@ -12430,7 +12427,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
@@ -12450,7 +12447,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
@@ -12470,7 +12467,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
@@ -12490,7 +12487,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
@@ -12510,13 +12507,13 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
       </c>
       <c r="C235" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D235">
         <v>56</v>
@@ -12530,13 +12527,13 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
       </c>
       <c r="C236" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D236">
         <v>31</v>
@@ -12550,7 +12547,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
@@ -12570,7 +12567,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
@@ -12590,7 +12587,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
@@ -12610,7 +12607,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
@@ -12630,13 +12627,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D241">
         <v>36</v>
@@ -12650,7 +12647,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -12670,13 +12667,13 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
       </c>
       <c r="C243" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D243">
         <v>55</v>
@@ -12690,7 +12687,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -12710,7 +12707,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -12730,13 +12727,13 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
       </c>
       <c r="C246" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D246">
         <v>42</v>
@@ -12750,13 +12747,13 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
       </c>
       <c r="C247" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D247">
         <v>41</v>
@@ -12770,7 +12767,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -12790,7 +12787,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -12810,7 +12807,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -12830,7 +12827,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -12850,7 +12847,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -12870,7 +12867,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -12890,7 +12887,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -12910,7 +12907,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -12930,7 +12927,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -12950,7 +12947,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -12970,7 +12967,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -12990,7 +12987,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -13010,7 +13007,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -13030,7 +13027,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -13050,7 +13047,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -13070,7 +13067,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -13090,7 +13087,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -13110,13 +13107,13 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D265">
         <v>70</v>
@@ -13130,7 +13127,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
